--- a/Lex_will_Perish.xlsx
+++ b/Lex_will_Perish.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,34 +467,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.131</v>
+        <v>0.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002045284329665043</v>
+        <v>0.101042934281782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006135852988995127</v>
+        <v>0.303128802845346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.1514</v>
+        <v>3.131</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002031916142994028</v>
+        <v>0.002045284329665043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006095748428982084</v>
+        <v>0.006135852988995127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>3.1514</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.002031916142994028</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006095748428982084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>8.910600000000001</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>0.575914715670335</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1.727744147011005</v>
       </c>
     </row>
